--- a/DOM_Banner/output/dept0713/Saad Sammani_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Saad Sammani_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona Health Sciences; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Radiation Oncology, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Cellular and Molecular Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, Indiana University, Indianapolis, USA; Department of Medicine, University of Illinois Chicago, Chicago, USA; Department of Medicine, University of Illinois Chicago, Chicago, USA; Department of Medicine, University of Illinois Chicago, Chicago, USA; Institute of Surgical Research, San Antonio, USA; Institute of Surgical Research, San Antonio, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Institute of Surgical Research, San Antonio, USA; College of Pharmacy, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4207004303</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>eNAMPT neutralization reduces preclinical ARDS severity via rectified NFkB and Akt/mTORC2 signaling</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Scientific Reports</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-021-04444-9</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35027578</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-021-04444-9</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Radiation Oncology, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Radiation Oncology, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medical Imaging, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Radiology and the Translational Imaging Center, Houston Methodist Research Institute, Houston, Texas; Department of Medical Imaging, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Cell and Molecular Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3166756180</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Involvement of eNAMPT/TLR4 signaling in murine radiation pneumonitis: protection by eNAMPT neutralization</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Translational Research</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.trsl.2021.06.002</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34139379</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.trsl.2021.06.002</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Radiation Oncology.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Anesthesiology, University of California Los Angeles, Los Angeles, California.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; Department of Medicine, and.; ChromoLogic LLC, Monrovia, California; and.; ChromoLogic LLC, Monrovia, California; and.; ChromoLogic LLC, Monrovia, California; and.; ChromoLogic LLC, Monrovia, California; and.; Tulane National Primate Research Center, New Orleans, Louisiana.; Department of Medicine, and.; Department of Medicine, and.; Department of Cell and Molecular Medicine, University of Arizona Health Sciences, Tucson, Arizona.; Department of Medicine, and.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225117181</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>eNAMPT Is a Novel Damage-associated Molecular Pattern Protein That Contributes to the Severity of Radiation-induced Lung Fibrosis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>American Journal of Respiratory Cell and Molecular Biology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1165/rcmb.2021-0357oc</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35167418</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1165/rcmb.2021-0357oc</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Anesthesiology, University of California Los Angeles, Los Angeles, CA, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Illinois at Chicago, Chicago, IL, United States; Department of Medicine, University of Illinois at Chicago, Chicago, IL, United States; Department of Medicine, University of Illinois at Chicago, Chicago, IL, United States; Department of Radiology and the Translational Imaging Center, Houston Methodist Hospital and the Houston Methodist Research Institute, Houston, TX, United States; Department of Radiology and the Translational Imaging Center, Houston Methodist Hospital and the Houston Methodist Research Institute, Houston, TX, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pathology, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283397238</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>eNAMPT Neutralization Preserves Lung Fluid Balance and Reduces Acute Renal Injury in Porcine Sepsis/VILI-Induced Inflammatory Lung Injury</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Frontiers in Physiology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2022.916159</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35812318</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2022.916159</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, IL.; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; University of Minnesota, Minneapolis, Minnesota; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois; Department of Medicine, Indiana University, Indianapolis, Indiana; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Materials Science and Engineering, Northwestern University, Evanston, Illinois; Department of Materials Science and Engineering, Northwestern University, Evanston, Illinois; Division of Pulmonary, Allergy, and Critical Care Medicine and Lung Biology Institute, University of Pennsylvania Perelman School of Medicine, Philadelphia, Pennsylvania; Division of Pulmonary, Allergy, and Critical Care Medicine and Lung Biology Institute, University of Pennsylvania Perelman School of Medicine, Philadelphia, Pennsylvania; Department of Biostatistics, Epidemiology, and Informatics, University of Pennsylvania Perelman School of Medicine, Philadelphia, Pennsylvania; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois; Division of Pulmonary, Allergy, and Critical Care Medicine and Lung Biology Institute, University of Pennsylvania Perelman School of Medicine, Philadelphia, Pennsylvania; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of Illinois at Chicago, Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213344769</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>A cortactin CTTN coding SNP contributes to lung vascular permeability and inflammatory disease severity in African descent subjects</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Translational Research</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.trsl.2022.02.002</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35181549</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.trsl.2022.02.002</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Medicine University of Arizona Health Sciences  Tucson AZ USA; Department of Medicine University of Arizona Health Sciences  Tucson AZ USA; Department of Medicine University of Arizona Health Sciences  Tucson AZ USA; Department of Medicine University of Arizona Health Sciences  Tucson AZ USA; Department of Medicine University of Arizona Health Sciences  Tucson AZ USA; Department of Medicine University of Arizona Health Sciences  Tucson AZ USA; Department of Medicine University of Arizona Health Sciences  Tucson AZ USA; Department of Medicine University of Arizona Health Sciences  Tucson AZ USA; Department of Medicine University of Illinois at Chicago  Chicago IL USA; Department of Medicine University of Arizona Health Sciences  Tucson AZ USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220864759</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Critical role for the lung endothelial nonmuscle myosin light‐chain kinase isoform in the severity of inflammatory murine lung injury</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Pulmonary circulation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/pul2.12061</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35514774</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/pul2.12061</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States of America; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States of America; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States of America; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States of America; Department of Anesthesiology. University of California Los Angeles, Los Angeles, CA, United States of America; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States of America; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States of America; Department of Pharmacology and Toxicology, University of Arizona Health Sciences, Tucson, AZ, United States of America; Department of Pharmacology, University of Illinois at Chicago, Chicago, IL, United States of America; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States of America</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297385015</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>TLR4 activation induces inflammatory vascular permeability via Dock1 targeting and NOX4 upregulation</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Biochimica et Biophysica Acta (BBA) - Molecular Basis of Disease</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.bbadis.2022.166562</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36179995</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.bbadis.2022.166562</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pathology, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Instituto Nacional de Ciencias Médicas y Nutrición Salvador Zubirán, México City, Mexico; Instituto Nacional de Enfermedades Respiratorias, México City, Mexico; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Instituto Nacional de Ciencias Médicas y Nutrición Salvador Zubirán, México City, Mexico; Department of Medicine, College of Medicine, University of Florida, Jacksonville, FL, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307371954</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Biochemical and genomic identification of novel biomarkers in progressive sarcoidosis: HBEGF, eNAMPT, and ANG-2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-10-25</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Frontiers in Medicine</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fmed.2022.1012827</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36388923</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fmed.2022.1012827</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4306180762</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Use of radiolabeled hyaluronic acid for preclinical assessment of inflammatory injury and acute respiratory distress syndrome</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Nuclear Medicine and Biology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.nucmedbio.2022.10.002</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36270074</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.nucmedbio.2022.10.002</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Saad Sammani_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Saad Sammani_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
